--- a/medicine/Sexualité et sexologie/MILF/MILF.xlsx
+++ b/medicine/Sexualité et sexologie/MILF/MILF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une MILF est une mère de famille sexuellement attirante. Le terme est un acronyme qui en anglais signifie « Mother I'd Like to Fuck » (littéralement « mère que j'aimerais baiser »). En français européen l'acronyme peut être traduit par MBAB (« mère bonne à baiser »).
-Le terme apparaît vers 1995[2] sur des forums américains[3]. Il sert essentiellement à désigner un genre pornographique[4] centré sur les femmes qui ont, le plus souvent, entre 32 et 50 ans. Les MILF peuvent même être de jeunes grands-mères, mais peuvent avoir des cheveux blancs. Dans les films X, la MILF est souvent incarnée par des actrices ayant une forte poitrine, faisant moins que leur âge et ayant souvent des scènes de sexe avec de jeunes hommes.
+Le terme apparaît vers 1995 sur des forums américains. Il sert essentiellement à désigner un genre pornographique centré sur les femmes qui ont, le plus souvent, entre 32 et 50 ans. Les MILF peuvent même être de jeunes grands-mères, mais peuvent avoir des cheveux blancs. Dans les films X, la MILF est souvent incarnée par des actrices ayant une forte poitrine, faisant moins que leur âge et ayant souvent des scènes de sexe avec de jeunes hommes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme MILF, popularisé en 1999 par le film American Pie, a été adapté en « MBAB » dans le doublage en France et en « MQAF » (mère que j'aimerais fourrer) au Québec. L'expression est prononcée par le personnage interprété par John Cho. Dans ce film, la MILF est la maman de Stifler, jouée par Jennifer Coolidge[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme MILF, popularisé en 1999 par le film American Pie, a été adapté en « MBAB » dans le doublage en France et en « MQAF » (mère que j'aimerais fourrer) au Québec. L'expression est prononcée par le personnage interprété par John Cho. Dans ce film, la MILF est la maman de Stifler, jouée par Jennifer Coolidge.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Films X et actrices renommées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">MILF est avant tout un terme et un style pornographique. Le terme, populaire dans les années 1990, a été repris dans les années 2000 par les professionnels du X. C'est l'ageplay, qui consiste à mélanger les personnes de différents âges. Les premiers films comportant le mot MILF dans le titre apparaissent dès 2003 avec MILF Money 1 et MILF Hunter 1.
 Le magazine Playboy sort une édition spéciale consacrée aux MILF, intitulé Hot Housewives.
@@ -578,10 +594,12 @@
           <t>Comédie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2018, la comédienne Axelle Laffont a co scénarisé et réalisé le film français MILF dans lequel elle joue également.
-Le film fut un échec au cinéma. Toutefois, la plateforme de vidéo à la demande Netflix l'intègre, en juillet 2020, dans son catalogue américain où il atteint la 5e place du top 10 de la catégorie « contenus originaux »[6].
+Le film fut un échec au cinéma. Toutefois, la plateforme de vidéo à la demande Netflix l'intègre, en juillet 2020, dans son catalogue américain où il atteint la 5e place du top 10 de la catégorie « contenus originaux ».
 </t>
         </is>
       </c>
